--- a/01_Conditions/OutphaseC4/flow_definitions.xlsx
+++ b/01_Conditions/OutphaseC4/flow_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RiverArchitect-tutorial\01_Conditions\OutphaseC4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CDA70-D11C-42D7-A42A-3C6CEA945F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB8679-23FD-4649-B578-75903A1398B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1485" windowWidth="13200" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2055" windowWidth="23550" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flows" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
@@ -630,7 +630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19E6-4301-89EC-A243AACB417A}"/>
+              <c16:uniqueId val="{00000000-AEAF-43E6-B6E5-7E7F524D48A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>44</v>
